--- a/Lecture 3/Lecture_3_Presentation/assets/data/untidy_dat2.xlsx
+++ b/Lecture 3/Lecture_3_Presentation/assets/data/untidy_dat2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liviosilva-muller/Documents/GitHub/Fundamentals_of_R_IHEID2022/Lecture 3/Lecture_3_Presentation/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE1902A-7FE9-FC4D-8EAA-57444C52038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2B7921-74CB-D347-953D-35C30AD378F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>lecturer</t>
   </si>
   <si>
-    <t>food</t>
-  </si>
-  <si>
     <t>henrique</t>
   </si>
   <si>
@@ -37,13 +34,16 @@
     <t>grade</t>
   </si>
   <si>
-    <t>brocolli</t>
+    <t>inglewoods</t>
   </si>
   <si>
-    <t>hot dogs</t>
+    <t>hamburger_foundation</t>
   </si>
   <si>
-    <t>beer</t>
+    <t>holy_cow</t>
+  </si>
+  <si>
+    <t>burguer_joint</t>
   </si>
 </sst>
 </file>
@@ -887,12 +887,13 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -900,51 +901,51 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -952,24 +953,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>7</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Lecture 3/Lecture_3_Presentation/assets/data/untidy_dat2.xlsx
+++ b/Lecture 3/Lecture_3_Presentation/assets/data/untidy_dat2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liviosilva-muller/Documents/GitHub/Fundamentals_of_R_IHEID2022/Lecture 3/Lecture_3_Presentation/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2B7921-74CB-D347-953D-35C30AD378F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286EB9D5-F5BE-B844-9D1D-E0C68B74248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,13 +37,13 @@
     <t>inglewoods</t>
   </si>
   <si>
-    <t>hamburger_foundation</t>
+    <t>joint</t>
   </si>
   <si>
-    <t>holy_cow</t>
+    <t>foundation</t>
   </si>
   <si>
-    <t>burguer_joint</t>
+    <t>holycow</t>
   </si>
 </sst>
 </file>
@@ -887,13 +887,13 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -945,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -956,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -967,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>7</v>
